--- a/Mifos Automation Excels/Client/Scenario7-Chaithanyaprod-TR2-LATE-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/Scenario7-Chaithanyaprod-TR2-LATE-Newcreateloan2.xlsx
@@ -665,7 +665,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1402,7 +1402,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>2863</v>
+        <v>231</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>29</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>2861</v>
+        <v>229</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>29</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>2859</v>
+        <v>227</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>29</v>
